--- a/code/bestnum_results/50_gap_results.xlsx
+++ b/code/bestnum_results/50_gap_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bestnum_algo</t>
         </is>
       </c>
@@ -470,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,7 +488,10 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -494,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -507,7 +515,10 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -518,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -531,7 +542,10 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -542,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -555,7 +569,10 @@
       <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -566,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -579,7 +596,10 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -590,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -603,7 +623,10 @@
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -614,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -627,7 +650,10 @@
       <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -638,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9696194683406961</v>
+        <v>0.9492041641572744</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -651,7 +677,10 @@
       <c r="E9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -662,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -675,7 +704,10 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -686,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -699,7 +731,10 @@
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -710,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -723,7 +758,10 @@
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -734,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -747,7 +785,10 @@
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -758,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -771,7 +812,10 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -782,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -795,7 +839,10 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -806,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -817,9 +864,12 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -830,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9660993156694156</v>
+        <v>0.9688318932148542</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -843,7 +893,10 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -854,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -867,7 +920,10 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -878,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -891,7 +947,10 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -902,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -915,7 +974,10 @@
       <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -926,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -939,7 +1001,10 @@
       <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -950,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -963,7 +1028,10 @@
       <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -974,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -987,7 +1055,10 @@
       <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -998,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1009,9 +1080,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1022,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8991871570818938</v>
+        <v>0.8606628991611494</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1035,7 +1109,10 @@
       <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1046,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1059,7 +1136,10 @@
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1070,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1083,7 +1163,10 @@
       <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>50</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1094,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1107,7 +1190,10 @@
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1118,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1131,7 +1217,10 @@
       <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1142,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1155,7 +1244,10 @@
       <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1166,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1179,7 +1271,10 @@
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1190,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1203,7 +1298,10 @@
       <c r="E32" t="n">
         <v>9</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1214,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8816517667092381</v>
+        <v>0.8300463935318174</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1225,9 +1323,12 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
-      </c>
-      <c r="F33" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1238,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1251,7 +1352,10 @@
       <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1262,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,7 +1379,10 @@
       <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>50</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1286,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1297,9 +1404,12 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1310,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1321,9 +1431,12 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1334,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1347,7 +1460,10 @@
       <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1358,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1371,7 +1487,10 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1382,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1395,7 +1514,10 @@
       <c r="E40" t="n">
         <v>9</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>50</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1406,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7129840546697039</v>
+        <v>0.6810850439882699</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1417,9 +1539,12 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
-      </c>
-      <c r="F41" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1430,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1438,12 +1563,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1454,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1462,12 +1590,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1478,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1486,12 +1617,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1502,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1510,12 +1644,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1526,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1534,12 +1671,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1550,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1558,12 +1698,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1574,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1582,12 +1725,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1598,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9474752837323049</v>
+        <v>0.645715023231802</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1606,12 +1752,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
-      </c>
-      <c r="F49" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1622,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1630,12 +1779,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1646,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,12 +1806,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1670,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1678,12 +1833,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
-      </c>
-      <c r="F52" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1694,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1702,12 +1860,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>50</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1718,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1726,12 +1887,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>50</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1742,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1750,12 +1914,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1766,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1774,12 +1941,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="n">
+        <v>50</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1790,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9448185581638673</v>
+        <v>0.469683257918552</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1798,12 +1968,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
-      </c>
-      <c r="F57" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1814,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1827,7 +2000,10 @@
       <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1838,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1851,7 +2027,10 @@
       <c r="E59" t="n">
         <v>3</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>50</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1862,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1873,9 +2052,12 @@
         <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
-      </c>
-      <c r="F60" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1886,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1899,7 +2081,10 @@
       <c r="E61" t="n">
         <v>3</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="n">
+        <v>50</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1910,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1923,7 +2108,10 @@
       <c r="E62" t="n">
         <v>3</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>50</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1934,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1947,7 +2135,10 @@
       <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="n">
+        <v>50</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1958,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1971,7 +2162,10 @@
       <c r="E64" t="n">
         <v>9</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="n">
+        <v>50</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -1982,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9517158130712189</v>
+        <v>0.8853324423655194</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1993,9 +2187,12 @@
         <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>50</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2006,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2019,7 +2216,10 @@
       <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2030,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2043,7 +2243,10 @@
       <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="n">
+        <v>50</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2054,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2067,7 +2270,10 @@
       <c r="E68" t="n">
         <v>3</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="n">
+        <v>50</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2078,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2089,9 +2295,12 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>50</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2102,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2115,7 +2324,10 @@
       <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2126,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2139,7 +2351,10 @@
       <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="n">
+        <v>50</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2150,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2163,7 +2378,10 @@
       <c r="E72" t="n">
         <v>9</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="n">
+        <v>50</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2174,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7516701220916839</v>
+        <v>0.9474414364421898</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2185,9 +2403,12 @@
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
-      </c>
-      <c r="F73" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2198,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2211,7 +2432,10 @@
       <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>50</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2222,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2235,7 +2459,10 @@
       <c r="E75" t="n">
         <v>3</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2246,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2259,7 +2486,10 @@
       <c r="E76" t="n">
         <v>3</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="n">
+        <v>50</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2270,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2283,7 +2513,10 @@
       <c r="E77" t="n">
         <v>3</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="n">
+        <v>50</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2294,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2307,7 +2540,10 @@
       <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="n">
+        <v>50</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2318,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2331,7 +2567,10 @@
       <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="n">
+        <v>50</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2342,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2353,9 +2592,12 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>50</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2366,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7882892200803134</v>
+        <v>0.9303792741551925</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2377,9 +2619,12 @@
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>50</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2390,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2401,9 +2646,12 @@
         <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2414,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2425,9 +2673,12 @@
         <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>50</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2438,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2449,9 +2700,12 @@
         <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>50</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2462,7 +2716,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2475,7 +2729,10 @@
       <c r="E85" t="n">
         <v>2</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="n">
+        <v>50</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2486,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2499,7 +2756,10 @@
       <c r="E86" t="n">
         <v>3</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="n">
+        <v>50</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2510,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2521,9 +2781,12 @@
         <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>50</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2534,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2547,7 +2810,10 @@
       <c r="E88" t="n">
         <v>9</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="n">
+        <v>50</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2558,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>0.652742098620671</v>
+        <v>0.7844641689246009</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2571,7 +2837,10 @@
       <c r="E89" t="n">
         <v>3</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="n">
+        <v>50</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2582,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2590,12 +2859,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
-      </c>
-      <c r="F90" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2606,7 +2878,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2614,12 +2886,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
-      </c>
-      <c r="F91" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>50</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2630,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2638,12 +2913,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
-      </c>
-      <c r="F92" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>50</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2654,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2662,12 +2940,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
-      </c>
-      <c r="F93" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>50</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2678,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2686,12 +2967,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>50</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2702,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2710,12 +2994,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
-      </c>
-      <c r="F95" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>50</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2726,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2734,12 +3021,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="n">
+        <v>50</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2750,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8940024668516809</v>
+        <v>0.7060103442125915</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2758,12 +3048,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>50</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2774,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2782,12 +3075,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>50</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2798,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2806,12 +3102,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>50</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2822,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2830,12 +3129,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>50</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2846,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2854,12 +3156,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>50</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2870,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2878,12 +3183,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>50</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2894,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2902,12 +3210,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>50</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2918,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2926,12 +3237,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="n">
+        <v>50</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2942,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9648668106551476</v>
+        <v>0.6015174612317452</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2950,12 +3264,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
-      </c>
-      <c r="F105" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>50</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2966,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2979,7 +3296,10 @@
       <c r="E106" t="n">
         <v>4</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="n">
+        <v>50</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -2990,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3003,7 +3323,10 @@
       <c r="E107" t="n">
         <v>4</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="n">
+        <v>50</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3014,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3027,7 +3350,10 @@
       <c r="E108" t="n">
         <v>4</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3038,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3049,9 +3375,12 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>50</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3062,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3075,7 +3404,10 @@
       <c r="E110" t="n">
         <v>4</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3086,7 +3418,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3099,7 +3431,10 @@
       <c r="E111" t="n">
         <v>4</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="n">
+        <v>50</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3110,7 +3445,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3123,7 +3458,10 @@
       <c r="E112" t="n">
         <v>9</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="n">
+        <v>50</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3134,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9258296233578235</v>
+        <v>0.9476911328721586</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3145,9 +3483,12 @@
         <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>7</v>
-      </c>
-      <c r="F113" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3158,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3169,9 +3510,12 @@
         <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
-      </c>
-      <c r="F114" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3182,7 +3526,7 @@
         <v>14</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3193,9 +3537,12 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3206,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3217,9 +3564,12 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3230,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3241,9 +3591,12 @@
         <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>50</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3254,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3265,9 +3618,12 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>50</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3278,7 +3634,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3291,7 +3647,10 @@
       <c r="E119" t="n">
         <v>4</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="n">
+        <v>50</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3302,7 +3661,7 @@
         <v>14</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3315,7 +3674,10 @@
       <c r="E120" t="n">
         <v>9</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="n">
+        <v>50</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3326,7 +3688,7 @@
         <v>14</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6523872618067369</v>
+        <v>0.949443621284593</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3337,9 +3699,12 @@
         <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
-      </c>
-      <c r="F121" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>50</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3350,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3363,7 +3728,10 @@
       <c r="E122" t="n">
         <v>4</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="n">
+        <v>50</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3374,7 +3742,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3387,7 +3755,10 @@
       <c r="E123" t="n">
         <v>4</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="n">
+        <v>50</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3398,7 +3769,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3409,9 +3780,12 @@
         <v>4</v>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
-      </c>
-      <c r="F124" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>50</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3422,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3433,9 +3807,12 @@
         <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>50</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3446,7 +3823,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3459,7 +3836,10 @@
       <c r="E126" t="n">
         <v>4</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="n">
+        <v>50</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3470,7 +3850,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3481,9 +3861,12 @@
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
-      </c>
-      <c r="F127" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>50</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3494,7 +3877,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3507,7 +3890,10 @@
       <c r="E128" t="n">
         <v>9</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="n">
+        <v>50</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3518,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7132151931302865</v>
+        <v>0.9025320185092112</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3529,9 +3915,12 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
-      </c>
-      <c r="F129" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>50</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3542,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3553,9 +3942,12 @@
         <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>50</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3566,7 +3958,7 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3577,9 +3969,12 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
-      </c>
-      <c r="F131" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>50</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3590,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3601,9 +3996,12 @@
         <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>50</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3614,7 +4012,7 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3625,9 +4023,12 @@
         <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3638,7 +4039,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3649,9 +4050,12 @@
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>50</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3662,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3673,9 +4077,12 @@
         <v>4</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>50</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3686,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3699,7 +4106,10 @@
       <c r="E136" t="n">
         <v>9</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="n">
+        <v>50</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3710,7 +4120,7 @@
         <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5294636503052113</v>
+        <v>0.7772244719273287</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3721,9 +4131,12 @@
         <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>50</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3734,7 +4147,7 @@
         <v>17</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3742,12 +4155,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
-      </c>
-      <c r="F138" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>50</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3758,7 +4174,7 @@
         <v>17</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3766,12 +4182,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
-      </c>
-      <c r="F139" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>50</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3782,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3790,12 +4209,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>6</v>
-      </c>
-      <c r="F140" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3806,7 +4228,7 @@
         <v>17</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3814,12 +4236,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>7</v>
-      </c>
-      <c r="F141" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3830,7 +4255,7 @@
         <v>17</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3838,12 +4263,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>50</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3854,7 +4282,7 @@
         <v>17</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3862,12 +4290,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
-      </c>
-      <c r="F143" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>50</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3878,7 +4309,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3886,12 +4317,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="n">
+        <v>50</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3902,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9377214623861647</v>
+        <v>0.6723167916907103</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3910,12 +4344,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
-      </c>
-      <c r="F145" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3926,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3934,12 +4371,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
-      </c>
-      <c r="F146" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>50</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3950,7 +4390,7 @@
         <v>18</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3958,12 +4398,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
-      </c>
-      <c r="F147" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3974,7 +4417,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3982,12 +4425,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
-      </c>
-      <c r="F148" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -3998,7 +4444,7 @@
         <v>18</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4006,12 +4452,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
-      </c>
-      <c r="F149" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>50</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4022,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4030,12 +4479,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>6</v>
-      </c>
-      <c r="F150" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>50</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4046,7 +4498,7 @@
         <v>18</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4054,12 +4506,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
-      </c>
-      <c r="F151" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>50</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4070,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4078,12 +4533,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" t="n">
+        <v>50</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4094,7 +4552,7 @@
         <v>18</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9354002042681283</v>
+        <v>0.4485585783035088</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4102,12 +4560,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
-      </c>
-      <c r="F153" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>50</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4118,7 +4579,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4131,7 +4592,10 @@
       <c r="E154" t="n">
         <v>5</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4142,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4153,9 +4617,12 @@
         <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>6</v>
-      </c>
-      <c r="F155" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>50</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4166,7 +4633,7 @@
         <v>19</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4179,7 +4646,10 @@
       <c r="E156" t="n">
         <v>6</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="n">
+        <v>50</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4190,7 +4660,7 @@
         <v>19</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4201,9 +4671,12 @@
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>7</v>
-      </c>
-      <c r="F157" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>50</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4214,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4225,9 +4698,12 @@
         <v>5</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
-      </c>
-      <c r="F158" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4238,7 +4714,7 @@
         <v>19</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4251,7 +4727,10 @@
       <c r="E159" t="n">
         <v>5</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="n">
+        <v>50</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4262,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4275,7 +4754,10 @@
       <c r="E160" t="n">
         <v>9</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="n">
+        <v>50</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4286,7 +4768,7 @@
         <v>19</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9286079955321815</v>
+        <v>0.902787996785258</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4297,9 +4779,12 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
-      </c>
-      <c r="F161" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>50</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4310,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="B162" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4321,9 +4806,12 @@
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
-      </c>
-      <c r="F162" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>50</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4334,7 +4822,7 @@
         <v>20</v>
       </c>
       <c r="B163" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4347,7 +4835,10 @@
       <c r="E163" t="n">
         <v>5</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F163" t="n">
+        <v>50</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4358,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="B164" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4369,9 +4860,12 @@
         <v>5</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
-      </c>
-      <c r="F164" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>50</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4382,7 +4876,7 @@
         <v>20</v>
       </c>
       <c r="B165" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4393,9 +4887,12 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
-      </c>
-      <c r="F165" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>50</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4406,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="B166" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4417,9 +4914,12 @@
         <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
-      </c>
-      <c r="F166" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>50</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4430,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4441,9 +4941,12 @@
         <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
-      </c>
-      <c r="F167" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4454,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="B168" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4467,7 +4970,10 @@
       <c r="E168" t="n">
         <v>9</v>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" t="n">
+        <v>50</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4478,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="B169" t="n">
-        <v>0.718049038080722</v>
+        <v>0.8858234785116819</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4489,9 +4995,12 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
-      </c>
-      <c r="F169" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>50</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4502,7 +5011,7 @@
         <v>21</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4513,9 +5022,12 @@
         <v>5</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F170" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>50</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4526,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4537,9 +5049,12 @@
         <v>5</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
-      </c>
-      <c r="F171" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>50</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4550,7 +5065,7 @@
         <v>21</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4561,9 +5076,12 @@
         <v>5</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
-      </c>
-      <c r="F172" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4574,7 +5092,7 @@
         <v>21</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4585,9 +5103,12 @@
         <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
-      </c>
-      <c r="F173" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>50</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4598,7 +5119,7 @@
         <v>21</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4609,9 +5130,12 @@
         <v>5</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
-      </c>
-      <c r="F174" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>50</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4622,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4633,9 +5157,12 @@
         <v>5</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
-      </c>
-      <c r="F175" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4646,7 +5173,7 @@
         <v>21</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4659,7 +5186,10 @@
       <c r="E176" t="n">
         <v>9</v>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" t="n">
+        <v>50</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4670,7 +5200,7 @@
         <v>21</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6421228118921922</v>
+        <v>0.938723347260409</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4681,9 +5211,12 @@
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
-      </c>
-      <c r="F177" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>50</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4694,7 +5227,7 @@
         <v>22</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4705,9 +5238,12 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>50</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4718,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4729,9 +5265,12 @@
         <v>5</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>50</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4742,7 +5281,7 @@
         <v>22</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4753,9 +5292,12 @@
         <v>5</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
-      </c>
-      <c r="F180" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>50</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4766,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4777,9 +5319,12 @@
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
-      </c>
-      <c r="F181" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>50</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4790,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4801,9 +5346,12 @@
         <v>5</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>50</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4814,7 +5362,7 @@
         <v>22</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4825,9 +5373,12 @@
         <v>5</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
-      </c>
-      <c r="F183" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4838,7 +5389,7 @@
         <v>22</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4851,7 +5402,10 @@
       <c r="E184" t="n">
         <v>9</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" t="n">
+        <v>50</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4862,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4206758580794448</v>
+        <v>0.6724712226611489</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4873,9 +5427,12 @@
         <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
-      </c>
-      <c r="F185" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4886,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4894,12 +5451,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
-      </c>
-      <c r="F186" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>50</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4910,7 +5470,7 @@
         <v>23</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4918,12 +5478,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E187" t="n">
-        <v>6</v>
-      </c>
-      <c r="F187" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>50</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4934,7 +5497,7 @@
         <v>23</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4942,12 +5505,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
-      </c>
-      <c r="F188" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>50</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4958,7 +5524,7 @@
         <v>23</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4966,12 +5532,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>6</v>
-      </c>
-      <c r="F189" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>50</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -4982,7 +5551,7 @@
         <v>23</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4990,12 +5559,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
-      </c>
-      <c r="F190" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>50</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5006,7 +5578,7 @@
         <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5014,12 +5586,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>7</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>50</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5030,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5038,12 +5613,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E192" t="n">
         <v>9</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F192" t="n">
+        <v>50</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5054,7 +5632,7 @@
         <v>23</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8981680231997832</v>
+        <v>0.589634054135793</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5062,12 +5640,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
-      </c>
-      <c r="F193" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>50</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5078,7 +5659,7 @@
         <v>24</v>
       </c>
       <c r="B194" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5086,12 +5667,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E194" t="n">
-        <v>5</v>
-      </c>
-      <c r="F194" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>50</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5102,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="B195" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5110,12 +5694,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
-      </c>
-      <c r="F195" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>50</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5126,7 +5713,7 @@
         <v>24</v>
       </c>
       <c r="B196" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5134,12 +5721,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196" t="n">
-        <v>9</v>
-      </c>
-      <c r="F196" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>50</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5150,7 +5740,7 @@
         <v>24</v>
       </c>
       <c r="B197" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5158,12 +5748,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>9</v>
-      </c>
-      <c r="F197" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>50</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5174,7 +5767,7 @@
         <v>24</v>
       </c>
       <c r="B198" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5182,12 +5775,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E198" t="n">
-        <v>7</v>
-      </c>
-      <c r="F198" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>50</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5198,7 +5794,7 @@
         <v>24</v>
       </c>
       <c r="B199" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5206,12 +5802,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E199" t="n">
-        <v>6</v>
-      </c>
-      <c r="F199" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>50</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5222,7 +5821,7 @@
         <v>24</v>
       </c>
       <c r="B200" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5230,12 +5829,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E200" t="n">
-        <v>9</v>
-      </c>
-      <c r="F200" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F200" t="n">
+        <v>50</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5246,7 +5848,7 @@
         <v>24</v>
       </c>
       <c r="B201" t="n">
-        <v>0.903661942493169</v>
+        <v>0.5070116060171246</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5254,12 +5856,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201" t="n">
-        <v>6</v>
-      </c>
-      <c r="F201" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>50</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5270,7 +5875,7 @@
         <v>25</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5281,9 +5886,12 @@
         <v>6</v>
       </c>
       <c r="E202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F202" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>50</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5294,7 +5902,7 @@
         <v>25</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5307,7 +5915,10 @@
       <c r="E203" t="n">
         <v>6</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F203" t="n">
+        <v>50</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5318,7 +5929,7 @@
         <v>25</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5329,9 +5940,12 @@
         <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>7</v>
-      </c>
-      <c r="F204" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F204" t="n">
+        <v>50</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5342,7 +5956,7 @@
         <v>25</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5353,9 +5967,12 @@
         <v>6</v>
       </c>
       <c r="E205" t="n">
-        <v>8</v>
-      </c>
-      <c r="F205" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>50</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5366,7 +5983,7 @@
         <v>25</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5377,9 +5994,12 @@
         <v>6</v>
       </c>
       <c r="E206" t="n">
-        <v>6</v>
-      </c>
-      <c r="F206" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>50</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5390,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5403,7 +6023,10 @@
       <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" t="n">
+        <v>50</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5414,7 +6037,7 @@
         <v>25</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5427,7 +6050,10 @@
       <c r="E208" t="n">
         <v>9</v>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F208" t="n">
+        <v>50</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5438,7 +6064,7 @@
         <v>25</v>
       </c>
       <c r="B209" t="n">
-        <v>0.9406045460366684</v>
+        <v>0.9657788886201362</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5449,9 +6075,12 @@
         <v>6</v>
       </c>
       <c r="E209" t="n">
-        <v>8</v>
-      </c>
-      <c r="F209" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>50</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5462,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5473,9 +6102,12 @@
         <v>6</v>
       </c>
       <c r="E210" t="n">
-        <v>6</v>
-      </c>
-      <c r="F210" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>50</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5486,7 +6118,7 @@
         <v>26</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5497,9 +6129,12 @@
         <v>6</v>
       </c>
       <c r="E211" t="n">
-        <v>6</v>
-      </c>
-      <c r="F211" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>50</v>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5510,7 +6145,7 @@
         <v>26</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5523,7 +6158,10 @@
       <c r="E212" t="n">
         <v>6</v>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" t="n">
+        <v>50</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5534,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="B213" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5547,7 +6185,10 @@
       <c r="E213" t="n">
         <v>6</v>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" t="n">
+        <v>50</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5558,7 +6199,7 @@
         <v>26</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5569,9 +6210,12 @@
         <v>6</v>
       </c>
       <c r="E214" t="n">
-        <v>5</v>
-      </c>
-      <c r="F214" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>50</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5582,7 +6226,7 @@
         <v>26</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5595,7 +6239,10 @@
       <c r="E215" t="n">
         <v>6</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F215" t="n">
+        <v>50</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5606,7 +6253,7 @@
         <v>26</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5617,9 +6264,12 @@
         <v>6</v>
       </c>
       <c r="E216" t="n">
-        <v>9</v>
-      </c>
-      <c r="F216" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>50</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5630,7 +6280,7 @@
         <v>26</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8311578584360721</v>
+        <v>0.9518674001158073</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5643,7 +6293,10 @@
       <c r="E217" t="n">
         <v>6</v>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F217" t="n">
+        <v>50</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5654,7 +6307,7 @@
         <v>27</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5665,9 +6318,12 @@
         <v>6</v>
       </c>
       <c r="E218" t="n">
-        <v>3</v>
-      </c>
-      <c r="F218" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>50</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5678,7 +6334,7 @@
         <v>27</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5689,9 +6345,12 @@
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>8</v>
-      </c>
-      <c r="F219" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>50</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5702,7 +6361,7 @@
         <v>27</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5715,7 +6374,10 @@
       <c r="E220" t="n">
         <v>6</v>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" t="n">
+        <v>50</v>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5726,7 +6388,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5737,9 +6399,12 @@
         <v>6</v>
       </c>
       <c r="E221" t="n">
-        <v>6</v>
-      </c>
-      <c r="F221" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>50</v>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5750,7 +6415,7 @@
         <v>27</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5763,7 +6428,10 @@
       <c r="E222" t="n">
         <v>6</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" t="n">
+        <v>50</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5774,7 +6442,7 @@
         <v>27</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5785,9 +6453,12 @@
         <v>6</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
-      </c>
-      <c r="F223" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F223" t="n">
+        <v>50</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5798,7 +6469,7 @@
         <v>27</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5809,9 +6480,12 @@
         <v>6</v>
       </c>
       <c r="E224" t="n">
-        <v>8</v>
-      </c>
-      <c r="F224" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F224" t="n">
+        <v>50</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5822,7 +6496,7 @@
         <v>27</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8062956648414162</v>
+        <v>0.901342509025271</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5835,7 +6509,10 @@
       <c r="E225" t="n">
         <v>5</v>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" t="n">
+        <v>50</v>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5846,7 +6523,7 @@
         <v>28</v>
       </c>
       <c r="B226" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5857,9 +6534,12 @@
         <v>6</v>
       </c>
       <c r="E226" t="n">
-        <v>2</v>
-      </c>
-      <c r="F226" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>50</v>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5870,7 +6550,7 @@
         <v>28</v>
       </c>
       <c r="B227" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5883,7 +6563,10 @@
       <c r="E227" t="n">
         <v>6</v>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" t="n">
+        <v>50</v>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5894,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="B228" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5905,9 +6588,12 @@
         <v>6</v>
       </c>
       <c r="E228" t="n">
-        <v>7</v>
-      </c>
-      <c r="F228" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F228" t="n">
+        <v>50</v>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5918,7 +6604,7 @@
         <v>28</v>
       </c>
       <c r="B229" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5929,9 +6615,12 @@
         <v>6</v>
       </c>
       <c r="E229" t="n">
-        <v>7</v>
-      </c>
-      <c r="F229" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F229" t="n">
+        <v>50</v>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5942,7 +6631,7 @@
         <v>28</v>
       </c>
       <c r="B230" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5953,9 +6642,12 @@
         <v>6</v>
       </c>
       <c r="E230" t="n">
-        <v>7</v>
-      </c>
-      <c r="F230" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F230" t="n">
+        <v>50</v>
+      </c>
+      <c r="G230" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5966,7 +6658,7 @@
         <v>28</v>
       </c>
       <c r="B231" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5979,7 +6671,10 @@
       <c r="E231" t="n">
         <v>6</v>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" t="n">
+        <v>50</v>
+      </c>
+      <c r="G231" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -5990,7 +6685,7 @@
         <v>28</v>
       </c>
       <c r="B232" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6001,9 +6696,12 @@
         <v>6</v>
       </c>
       <c r="E232" t="n">
-        <v>8</v>
-      </c>
-      <c r="F232" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F232" t="n">
+        <v>50</v>
+      </c>
+      <c r="G232" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6014,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="B233" t="n">
-        <v>0.806309193192338</v>
+        <v>0.884976834049258</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6025,9 +6723,12 @@
         <v>6</v>
       </c>
       <c r="E233" t="n">
-        <v>3</v>
-      </c>
-      <c r="F233" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>50</v>
+      </c>
+      <c r="G233" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6038,7 +6739,7 @@
         <v>29</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6049,9 +6750,12 @@
         <v>6</v>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
-      </c>
-      <c r="F234" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>50</v>
+      </c>
+      <c r="G234" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6062,7 +6766,7 @@
         <v>29</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6073,9 +6777,12 @@
         <v>6</v>
       </c>
       <c r="E235" t="n">
-        <v>2</v>
-      </c>
-      <c r="F235" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F235" t="n">
+        <v>50</v>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6086,7 +6793,7 @@
         <v>29</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6097,9 +6804,12 @@
         <v>6</v>
       </c>
       <c r="E236" t="n">
-        <v>2</v>
-      </c>
-      <c r="F236" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>50</v>
+      </c>
+      <c r="G236" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6110,7 +6820,7 @@
         <v>29</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -6121,9 +6831,12 @@
         <v>6</v>
       </c>
       <c r="E237" t="n">
-        <v>2</v>
-      </c>
-      <c r="F237" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F237" t="n">
+        <v>50</v>
+      </c>
+      <c r="G237" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6134,7 +6847,7 @@
         <v>29</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6145,9 +6858,12 @@
         <v>6</v>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
-      </c>
-      <c r="F238" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>50</v>
+      </c>
+      <c r="G238" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6158,7 +6874,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -6169,9 +6885,12 @@
         <v>6</v>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
-      </c>
-      <c r="F239" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F239" t="n">
+        <v>50</v>
+      </c>
+      <c r="G239" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6182,7 +6901,7 @@
         <v>29</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6195,7 +6914,10 @@
       <c r="E240" t="n">
         <v>9</v>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F240" t="n">
+        <v>50</v>
+      </c>
+      <c r="G240" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6206,7 +6928,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5048354922606868</v>
+        <v>0.8292717033421054</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6217,9 +6939,12 @@
         <v>6</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
-      </c>
-      <c r="F241" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>50</v>
+      </c>
+      <c r="G241" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6230,7 +6955,7 @@
         <v>30</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -6241,9 +6966,12 @@
         <v>6</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
-      </c>
-      <c r="F242" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F242" t="n">
+        <v>50</v>
+      </c>
+      <c r="G242" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6254,7 +6982,7 @@
         <v>30</v>
       </c>
       <c r="B243" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6265,9 +6993,12 @@
         <v>6</v>
       </c>
       <c r="E243" t="n">
-        <v>3</v>
-      </c>
-      <c r="F243" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>50</v>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6278,7 +7009,7 @@
         <v>30</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -6289,9 +7020,12 @@
         <v>6</v>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
-      </c>
-      <c r="F244" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F244" t="n">
+        <v>50</v>
+      </c>
+      <c r="G244" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6302,7 +7036,7 @@
         <v>30</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -6313,9 +7047,12 @@
         <v>6</v>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
-      </c>
-      <c r="F245" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>50</v>
+      </c>
+      <c r="G245" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6326,7 +7063,7 @@
         <v>30</v>
       </c>
       <c r="B246" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -6337,9 +7074,12 @@
         <v>6</v>
       </c>
       <c r="E246" t="n">
-        <v>3</v>
-      </c>
-      <c r="F246" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F246" t="n">
+        <v>50</v>
+      </c>
+      <c r="G246" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6350,7 +7090,7 @@
         <v>30</v>
       </c>
       <c r="B247" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -6361,9 +7101,12 @@
         <v>6</v>
       </c>
       <c r="E247" t="n">
-        <v>2</v>
-      </c>
-      <c r="F247" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F247" t="n">
+        <v>50</v>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6374,7 +7117,7 @@
         <v>30</v>
       </c>
       <c r="B248" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -6387,7 +7130,10 @@
       <c r="E248" t="n">
         <v>9</v>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" t="n">
+        <v>50</v>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
@@ -6398,7 +7144,7 @@
         <v>30</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4085300810695489</v>
+        <v>0.8850987432675043</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6409,9 +7155,444 @@
         <v>6</v>
       </c>
       <c r="E249" t="n">
+        <v>4</v>
+      </c>
+      <c r="F249" t="n">
+        <v>50</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>31</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>6</v>
+      </c>
+      <c r="E250" t="n">
         <v>1</v>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F250" t="n">
+        <v>50</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>31</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>6</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>50</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>31</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>50</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>31</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>6</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>50</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>31</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>6</v>
+      </c>
+      <c r="E254" t="n">
+        <v>3</v>
+      </c>
+      <c r="F254" t="n">
+        <v>50</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>31</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>6</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>50</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>31</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>9</v>
+      </c>
+      <c r="F256" t="n">
+        <v>50</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>31</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.5993939543248502</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>6</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>50</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>32</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>50</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>32</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>50</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>32</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>6</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>50</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>32</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>6</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>50</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>32</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>6</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>50</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>32</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>6</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>50</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>32</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>9</v>
+      </c>
+      <c r="F264" t="n">
+        <v>50</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>gap_statistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>32</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.3897484384849009</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>50</v>
+      </c>
+      <c r="G265" t="inlineStr">
         <is>
           <t>gap_statistic</t>
         </is>
